--- a/biology/Botanique/Aeluropus/Aeluropus.xlsx
+++ b/biology/Botanique/Aeluropus/Aeluropus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aeluropus , l'Élurope, est un genre de plantes monocotylédones de la famille des Poaceae, originaire de l'Ancien Monde.
 Étymologie
@@ -513,17 +525,19 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (16 juillet 2016)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (16 juillet 2016) :
 Aeluropus badghyzi Tzvelev
 Aeluropus laciniatus Khodash.
 Aeluropus lagopoides (L.) Thwaites
 Aeluropus littoralis (Gouan) Parl.
 Aeluropus macrostachyus Hack.
 Aeluropus pilosus (H.L.Yang) S.L.Chen &amp; X.L.Yang
-Attention, selon Paleobiology Database                   (10 août 2016)[3] Aeluropus Milne-Edwards, 1871 est considéré synonyme du genre Ailuropoda Milne-Edwards, 1870 (genre de mammifères de la famille des Ursidae, notamment du panda géant).
-Selon Tropicos                                           (16 juillet 2016)[1] (Attention liste brute contenant possiblement des synonymes) :
+Attention, selon Paleobiology Database                   (10 août 2016) Aeluropus Milne-Edwards, 1871 est considéré synonyme du genre Ailuropoda Milne-Edwards, 1870 (genre de mammifères de la famille des Ursidae, notamment du panda géant).
+Selon Tropicos                                           (16 juillet 2016) (Attention liste brute contenant possiblement des synonymes) :
 Aeluropus arabicus (Spreng.) Steud.
 Aeluropus badghyzi Tzvelev
 Aeluropus bombycinus Fig. &amp; De Not.
